--- a/medicine/Pharmacie/Pharmacie_et_Aide_humanitaire/Pharmacie_et_Aide_humanitaire.xlsx
+++ b/medicine/Pharmacie/Pharmacie_et_Aide_humanitaire/Pharmacie_et_Aide_humanitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pharmacie et Aide humanitaire (PAH) est une organisation non gouvernementale internationale à but humanitaire basée à Caen, en France.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'association PAH est fondée en 2001 par Jean-Jacques Bléas et Jean-Louis Machuron, anciens membres fondateurs de Pharmaciens sans frontières (PSF). Leur objectif est de partager leur expérience du terrain aux pharmaciens désirant apporter leur soutien et leur compétence dans des missions humanitaires, et ainsi leur donner les connaissances et compétences nécessaires à une action efficace et responsable.
 </t>
@@ -543,7 +557,9 @@
           <t>Charte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">PAH n’a pas vocation à se substituer aux états et aux structures nationales des pays dans lesquels elle intervient, mais PAH cherche à travailler en partenariat avec ces structures afin de leur fournir un appui technique dans ses domaines de compétences. 
 </t>
@@ -574,17 +590,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">PAH initie et forme des pharmaciens à l'action humanitaire, et mène des missions d’urgence, de développement et d’évaluation dans les pays en développement. L'organisation se divise en trois sections, financièrement indépendantes l'une de l'autre.
-Expertise et formation
-Le diplôme universitaire, créé en 1992, permet de former les professionnels de santé en général et du médicament en particulier dans le secteur de l'action humanitaire. Organisé au sein de la faculté des sciences pharmaceutiques de l'Université de Caen Basse-Normandie, il associe une formation théorique suivie d'un stage sur le terrain.
-PAH réalise également des audits des structures sanitaires et pharmaceutiques des pays en développement.
-Opérations
-PAH intervient dans l'urgence (catastrophes naturelles, conflits armés, épidémies) en participant à la gestion de stock des médicaments et du matériel médical, en organisant les réseaux d’approvisionnement et de distribution et en épaulant les systèmes pharmaceutiques nationaux.
-L'organisation assure également le tri des dons en médicaments, ainsi que la reconstruction et la réhabilitation de structures pharmaceutiques locales. Ses implications dans l'urgence sont effectuées en visant une pérennisation de l'aide après le départ de l'équipe urgentiste.
-Laboratoire de contrôle et de recherche
-PAH gérait la Centrale humanitaire médico-pharmaceutique (CHMP) de Clermont-Ferrand, qui fournit de nombreux acteurs de l'aide humanitaire en médicaments essentiels génériques, en matériel médical et autres produits de santé, et en assurait le contrôle qualité.
 </t>
         </is>
       </c>
@@ -610,10 +620,125 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Expertise et formation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diplôme universitaire, créé en 1992, permet de former les professionnels de santé en général et du médicament en particulier dans le secteur de l'action humanitaire. Organisé au sein de la faculté des sciences pharmaceutiques de l'Université de Caen Basse-Normandie, il associe une formation théorique suivie d'un stage sur le terrain.
+PAH réalise également des audits des structures sanitaires et pharmaceutiques des pays en développement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pharmacie_et_Aide_humanitaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pharmacie_et_Aide_humanitaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Opérations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PAH intervient dans l'urgence (catastrophes naturelles, conflits armés, épidémies) en participant à la gestion de stock des médicaments et du matériel médical, en organisant les réseaux d’approvisionnement et de distribution et en épaulant les systèmes pharmaceutiques nationaux.
+L'organisation assure également le tri des dons en médicaments, ainsi que la reconstruction et la réhabilitation de structures pharmaceutiques locales. Ses implications dans l'urgence sont effectuées en visant une pérennisation de l'aide après le départ de l'équipe urgentiste.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pharmacie_et_Aide_humanitaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pharmacie_et_Aide_humanitaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Laboratoire de contrôle et de recherche</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PAH gérait la Centrale humanitaire médico-pharmaceutique (CHMP) de Clermont-Ferrand, qui fournit de nombreux acteurs de l'aide humanitaire en médicaments essentiels génériques, en matériel médical et autres produits de santé, et en assurait le contrôle qualité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pharmacie_et_Aide_humanitaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pharmacie_et_Aide_humanitaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Axes d’intervention</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Promouvoir des actions humanitaires et de développement dans le domaine médical, pharmaceutique, de l’hygiène et d’une manière plus générale en santé publique.
 Effectuer des missions d’urgence, de développement, d’expertise et/ou d’audit dans les pays en développement ou à ressources limitées.
@@ -625,57 +750,61 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Pharmacie_et_Aide_humanitaire</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pharmacie_et_Aide_humanitaire</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pharmacie_et_Aide_humanitaire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pharmacie_et_Aide_humanitaire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Zones d'intervention</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pharmacie_et_Aide_humanitaire</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pharmacie_et_Aide_humanitaire</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pharmacie_et_Aide_humanitaire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pharmacie_et_Aide_humanitaire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Partenaires</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondation Mérieux
 OCHA (Office for the Coordination of Humanitarian Affairs), branche de l'ONU
